--- a/natmiOut/OldD0/LR-pairs_lrc2p/F11r-Jam2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/F11r-Jam2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Jam2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.460778059032</v>
+        <v>20.10858766666667</v>
       </c>
       <c r="H2">
-        <v>11.460778059032</v>
+        <v>60.325763</v>
       </c>
       <c r="I2">
-        <v>0.8877438268614113</v>
+        <v>0.9234633461941997</v>
       </c>
       <c r="J2">
-        <v>0.8877438268614113</v>
+        <v>0.9234633461941997</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.6791800134101</v>
+        <v>33.24999533333333</v>
       </c>
       <c r="N2">
-        <v>17.6791800134101</v>
+        <v>99.74998599999999</v>
       </c>
       <c r="O2">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="P2">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="Q2">
-        <v>202.6171583993675</v>
+        <v>668.6104460765908</v>
       </c>
       <c r="R2">
-        <v>202.6171583993675</v>
+        <v>6017.494014689318</v>
       </c>
       <c r="S2">
-        <v>0.3657391178885701</v>
+        <v>0.5239140831929391</v>
       </c>
       <c r="T2">
-        <v>0.3657391178885701</v>
+        <v>0.5239140831929391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.460778059032</v>
+        <v>20.10858766666667</v>
       </c>
       <c r="H3">
-        <v>11.460778059032</v>
+        <v>60.325763</v>
       </c>
       <c r="I3">
-        <v>0.8877438268614113</v>
+        <v>0.9234633461941997</v>
       </c>
       <c r="J3">
-        <v>0.8877438268614113</v>
+        <v>0.9234633461941997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.2818385695768</v>
+        <v>23.30243966666667</v>
       </c>
       <c r="N3">
-        <v>23.2818385695768</v>
+        <v>69.907319</v>
       </c>
       <c r="O3">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="P3">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="Q3">
-        <v>266.8279846521307</v>
+        <v>468.5791508843775</v>
       </c>
       <c r="R3">
-        <v>266.8279846521307</v>
+        <v>4217.212357959397</v>
       </c>
       <c r="S3">
-        <v>0.4816444594603486</v>
+        <v>0.3671722715064976</v>
       </c>
       <c r="T3">
-        <v>0.4816444594603486</v>
+        <v>0.3671722715064976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.460778059032</v>
+        <v>20.10858766666667</v>
       </c>
       <c r="H4">
-        <v>11.460778059032</v>
+        <v>60.325763</v>
       </c>
       <c r="I4">
-        <v>0.8877438268614113</v>
+        <v>0.9234633461941997</v>
       </c>
       <c r="J4">
-        <v>0.8877438268614113</v>
+        <v>0.9234633461941997</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.95094284865339</v>
+        <v>2.054792666666667</v>
       </c>
       <c r="N4">
-        <v>1.95094284865339</v>
+        <v>6.164378</v>
       </c>
       <c r="O4">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="P4">
-        <v>0.04546384699196949</v>
+        <v>0.03506039695911681</v>
       </c>
       <c r="Q4">
-        <v>22.35932299427216</v>
+        <v>41.31897847449045</v>
       </c>
       <c r="R4">
-        <v>22.35932299427216</v>
+        <v>371.870806270414</v>
       </c>
       <c r="S4">
-        <v>0.04036024951249265</v>
+        <v>0.03237699149476295</v>
       </c>
       <c r="T4">
-        <v>0.04036024951249265</v>
+        <v>0.03237699149476295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.44922785962496</v>
+        <v>0.2128156666666667</v>
       </c>
       <c r="H5">
-        <v>1.44922785962496</v>
+        <v>0.638447</v>
       </c>
       <c r="I5">
-        <v>0.1122561731385886</v>
+        <v>0.009773310334883756</v>
       </c>
       <c r="J5">
-        <v>0.1122561731385886</v>
+        <v>0.009773310334883756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6791800134101</v>
+        <v>33.24999533333333</v>
       </c>
       <c r="N5">
-        <v>17.6791800134101</v>
+        <v>99.74998599999999</v>
       </c>
       <c r="O5">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="P5">
-        <v>0.4119872274208073</v>
+        <v>0.5673360890306117</v>
       </c>
       <c r="Q5">
-        <v>25.62116021075869</v>
+        <v>7.076119923526888</v>
       </c>
       <c r="R5">
-        <v>25.62116021075869</v>
+        <v>63.68507931174199</v>
       </c>
       <c r="S5">
-        <v>0.04624810953223724</v>
+        <v>0.005544751662275409</v>
       </c>
       <c r="T5">
-        <v>0.04624810953223724</v>
+        <v>0.005544751662275409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.44922785962496</v>
+        <v>0.2128156666666667</v>
       </c>
       <c r="H6">
-        <v>1.44922785962496</v>
+        <v>0.638447</v>
       </c>
       <c r="I6">
-        <v>0.1122561731385886</v>
+        <v>0.009773310334883756</v>
       </c>
       <c r="J6">
-        <v>0.1122561731385886</v>
+        <v>0.009773310334883756</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2818385695768</v>
+        <v>23.30243966666667</v>
       </c>
       <c r="N6">
-        <v>23.2818385695768</v>
+        <v>69.907319</v>
       </c>
       <c r="O6">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="P6">
-        <v>0.5425489255872232</v>
+        <v>0.3976035140102714</v>
       </c>
       <c r="Q6">
-        <v>33.74068907832162</v>
+        <v>4.959124232621445</v>
       </c>
       <c r="R6">
-        <v>33.74068907832162</v>
+        <v>44.632118093593</v>
       </c>
       <c r="S6">
-        <v>0.06090446612687458</v>
+        <v>0.003885902532662684</v>
       </c>
       <c r="T6">
-        <v>0.06090446612687458</v>
+        <v>0.003885902532662684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2128156666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.638447</v>
+      </c>
+      <c r="I7">
+        <v>0.009773310334883756</v>
+      </c>
+      <c r="J7">
+        <v>0.009773310334883756</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.054792666666667</v>
+      </c>
+      <c r="N7">
+        <v>6.164378</v>
+      </c>
+      <c r="O7">
+        <v>0.03506039695911681</v>
+      </c>
+      <c r="P7">
+        <v>0.03506039695911681</v>
+      </c>
+      <c r="Q7">
+        <v>0.4372920712184444</v>
+      </c>
+      <c r="R7">
+        <v>3.935628640966</v>
+      </c>
+      <c r="S7">
+        <v>0.0003426561399456634</v>
+      </c>
+      <c r="T7">
+        <v>0.0003426561399456633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.453784333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.361352999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.06676334347091657</v>
+      </c>
+      <c r="J8">
+        <v>0.06676334347091657</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>33.24999533333333</v>
+      </c>
+      <c r="N8">
+        <v>99.74998599999999</v>
+      </c>
+      <c r="O8">
+        <v>0.5673360890306117</v>
+      </c>
+      <c r="P8">
+        <v>0.5673360890306117</v>
+      </c>
+      <c r="Q8">
+        <v>48.33832229900644</v>
+      </c>
+      <c r="R8">
+        <v>435.0449006910579</v>
+      </c>
+      <c r="S8">
+        <v>0.03787725417539724</v>
+      </c>
+      <c r="T8">
+        <v>0.03787725417539724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.44922785962496</v>
-      </c>
-      <c r="H7">
-        <v>1.44922785962496</v>
-      </c>
-      <c r="I7">
-        <v>0.1122561731385886</v>
-      </c>
-      <c r="J7">
-        <v>0.1122561731385886</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.95094284865339</v>
-      </c>
-      <c r="N7">
-        <v>1.95094284865339</v>
-      </c>
-      <c r="O7">
-        <v>0.04546384699196949</v>
-      </c>
-      <c r="P7">
-        <v>0.04546384699196949</v>
-      </c>
-      <c r="Q7">
-        <v>2.827360728804575</v>
-      </c>
-      <c r="R7">
-        <v>2.827360728804575</v>
-      </c>
-      <c r="S7">
-        <v>0.005103597479476829</v>
-      </c>
-      <c r="T7">
-        <v>0.005103597479476829</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.453784333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.361352999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.06676334347091657</v>
+      </c>
+      <c r="J9">
+        <v>0.06676334347091657</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.30243966666667</v>
+      </c>
+      <c r="N9">
+        <v>69.907319</v>
+      </c>
+      <c r="O9">
+        <v>0.3976035140102714</v>
+      </c>
+      <c r="P9">
+        <v>0.3976035140102714</v>
+      </c>
+      <c r="Q9">
+        <v>33.87672171584522</v>
+      </c>
+      <c r="R9">
+        <v>304.8904954426069</v>
+      </c>
+      <c r="S9">
+        <v>0.02654533997111114</v>
+      </c>
+      <c r="T9">
+        <v>0.02654533997111114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.453784333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.361352999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.06676334347091657</v>
+      </c>
+      <c r="J10">
+        <v>0.06676334347091657</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.054792666666667</v>
+      </c>
+      <c r="N10">
+        <v>6.164378</v>
+      </c>
+      <c r="O10">
+        <v>0.03506039695911681</v>
+      </c>
+      <c r="P10">
+        <v>0.03506039695911681</v>
+      </c>
+      <c r="Q10">
+        <v>2.987225387048222</v>
+      </c>
+      <c r="R10">
+        <v>26.885028483434</v>
+      </c>
+      <c r="S10">
+        <v>0.002340749324408195</v>
+      </c>
+      <c r="T10">
+        <v>0.002340749324408194</v>
       </c>
     </row>
   </sheetData>
